--- a/DateBase/orders/Nhat 48_2025-12-4.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-4.xlsx
@@ -797,6 +797,9 @@
       <c r="G2" t="str">
         <v>03371133653535555555555355885102055351010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
